--- a/results/Reg_result_solar.xlsx
+++ b/results/Reg_result_solar.xlsx
@@ -505,43 +505,43 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10.82003985568211</v>
+        <v>10.80176279249223</v>
       </c>
       <c r="C2" t="n">
-        <v>11.48287232286521</v>
+        <v>11.31560241107106</v>
       </c>
       <c r="D2" t="n">
-        <v>10.59821539811838</v>
+        <v>10.32841491369376</v>
       </c>
       <c r="E2" t="n">
-        <v>9.546881623931796</v>
+        <v>9.492487960912264</v>
       </c>
       <c r="F2" t="n">
-        <v>11.09704748319866</v>
+        <v>10.7197553510972</v>
       </c>
       <c r="G2" t="n">
-        <v>10.15733930495782</v>
+        <v>9.863264076340414</v>
       </c>
       <c r="H2" t="n">
-        <v>9.780181099314653</v>
+        <v>9.642843714138213</v>
       </c>
       <c r="I2" t="n">
-        <v>9.668840111915312</v>
+        <v>9.387057812681991</v>
       </c>
       <c r="J2" t="n">
-        <v>10.12442385877215</v>
+        <v>10.01160140298562</v>
       </c>
       <c r="K2" t="n">
-        <v>10.19106544613177</v>
+        <v>9.953789848704155</v>
       </c>
       <c r="L2" t="n">
-        <v>11.49095592255191</v>
+        <v>11.3758289578403</v>
       </c>
       <c r="M2" t="n">
-        <v>10.62319940808747</v>
+        <v>10.4590705843998</v>
       </c>
       <c r="N2" t="n">
-        <v>9.843290699261143</v>
+        <v>9.905485443912186</v>
       </c>
     </row>
     <row r="3">
@@ -549,43 +549,43 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.5899807239709836</v>
+        <v>-0.5872448126787629</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.6815131334717963</v>
+        <v>-0.6564743383561781</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.6257771688711227</v>
+        <v>-0.5853904730264068</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.4713663402634065</v>
+        <v>-0.4632241001598181</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.7132182094039219</v>
+        <v>-0.6567409847010769</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.6001463000154421</v>
+        <v>-0.5561258941997722</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.3747800617815302</v>
+        <v>-0.3519228631559845</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.5154346442495341</v>
+        <v>-0.4732543789404098</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.5764286961319358</v>
+        <v>-0.5595401934443966</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.5655355676068126</v>
+        <v>-0.530017553600579</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.6077224453316237</v>
+        <v>-0.5904889784709213</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.6144509191320287</v>
+        <v>-0.5898823165375545</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.5018054901538307</v>
+        <v>-0.5111154817230391</v>
       </c>
     </row>
     <row r="4">
@@ -593,43 +593,43 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.009902775762183347</v>
+        <v>0.01122169160202996</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04486798251288593</v>
+        <v>0.05693857251431406</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1658202603560135</v>
+        <v>0.1852896974756091</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1340255565586927</v>
+        <v>0.1379507311339778</v>
       </c>
       <c r="F4" t="n">
-        <v>0.06096907217105541</v>
+        <v>0.08819535924512301</v>
       </c>
       <c r="G4" t="n">
-        <v>0.194010106933147</v>
+        <v>0.2152312666512526</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1016946012680591</v>
+        <v>0.1067470568024271</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2945986541657228</v>
+        <v>0.3149327272050564</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1452042545780221</v>
+        <v>0.153345788175705</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1603614548312406</v>
+        <v>0.1774838196556885</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.09126857919657028</v>
+        <v>-0.08296074681812737</v>
       </c>
       <c r="M4" t="n">
-        <v>0.04088455609380837</v>
+        <v>0.05272847779437562</v>
       </c>
       <c r="N4" t="n">
-        <v>0.2002922711249986</v>
+        <v>0.1958041521628128</v>
       </c>
     </row>
     <row r="5">
@@ -637,43 +637,43 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.2500810120071564</v>
+        <v>0.2305985278385058</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4833769409605513</v>
+        <v>0.4797485940178183</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7950282453862992</v>
+        <v>0.7868956032513934</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4283780871778864</v>
+        <v>0.3979449685933885</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5160826712738951</v>
+        <v>0.6264893266796507</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3734699551298895</v>
+        <v>0.4686160949836983</v>
       </c>
       <c r="H5" t="n">
-        <v>0.3771105155686769</v>
+        <v>0.3777420181051386</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6969364589086464</v>
+        <v>0.7095609614332354</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5253113504327706</v>
+        <v>0.4978861829254566</v>
       </c>
       <c r="K5" t="n">
-        <v>0.3847900116967076</v>
+        <v>0.4373657267465099</v>
       </c>
       <c r="L5" t="n">
-        <v>0.5414553871161227</v>
+        <v>0.5128784138447524</v>
       </c>
       <c r="M5" t="n">
-        <v>0.3850859360470286</v>
+        <v>0.396092863045816</v>
       </c>
       <c r="N5" t="n">
-        <v>0.7441149020326402</v>
+        <v>0.6869262110785017</v>
       </c>
     </row>
     <row r="6">
@@ -681,43 +681,43 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.02579690138081781</v>
+        <v>0.02274971694723556</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04986235130623951</v>
+        <v>0.04732963745277272</v>
       </c>
       <c r="D6" t="n">
-        <v>0.08201048562858536</v>
+        <v>0.07763125120005265</v>
       </c>
       <c r="E6" t="n">
-        <v>0.04418898971951967</v>
+        <v>0.03925929398134009</v>
       </c>
       <c r="F6" t="n">
-        <v>0.05323608405271772</v>
+        <v>0.06180635664078315</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03852498645882203</v>
+        <v>0.04623135983445693</v>
       </c>
       <c r="H6" t="n">
-        <v>0.04079140174855217</v>
+        <v>0.03860358192356331</v>
       </c>
       <c r="I6" t="n">
-        <v>0.07189190796560055</v>
+        <v>0.07000179567806834</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05418806087105331</v>
+        <v>0.04911900279530892</v>
       </c>
       <c r="K6" t="n">
-        <v>0.03969269759584802</v>
+        <v>0.04314835215632116</v>
       </c>
       <c r="L6" t="n">
-        <v>0.05585338571465569</v>
+        <v>0.05059806258384509</v>
       </c>
       <c r="M6" t="n">
-        <v>0.03972322342913757</v>
+        <v>0.03907657435446898</v>
       </c>
       <c r="N6" t="n">
-        <v>0.07675856151439282</v>
+        <v>0.06776876249885327</v>
       </c>
     </row>
     <row r="7">
@@ -725,43 +725,43 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.04076618474592506</v>
+        <v>0.03873885909775399</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07879620095488915</v>
+        <v>0.08059424038915525</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1295990769931747</v>
+        <v>0.1321926821681455</v>
       </c>
       <c r="E7" t="n">
-        <v>0.06983073246080743</v>
+        <v>0.06685183210621187</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0841276246943533</v>
+        <v>0.1052456057719775</v>
       </c>
       <c r="G7" t="n">
-        <v>0.06088005269045269</v>
+        <v>0.07872406231156284</v>
       </c>
       <c r="H7" t="n">
-        <v>0.06484190537018038</v>
+        <v>0.06734014259899682</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1136089470048516</v>
+        <v>0.1192010303096091</v>
       </c>
       <c r="J7" t="n">
-        <v>0.08563200935967455</v>
+        <v>0.0836412221181889</v>
       </c>
       <c r="K7" t="n">
-        <v>0.06272535679264508</v>
+        <v>0.07347422995902854</v>
       </c>
       <c r="L7" t="n">
-        <v>0.08826367970000287</v>
+        <v>0.08615980680555659</v>
       </c>
       <c r="M7" t="n">
-        <v>0.06277359598777302</v>
+        <v>0.06654069197659306</v>
       </c>
       <c r="N7" t="n">
-        <v>0.1212995953790785</v>
+        <v>0.1153985584858559</v>
       </c>
     </row>
     <row r="8">
@@ -915,7 +915,7 @@
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>*</t>
         </is>
       </c>
       <c r="H10" t="inlineStr"/>
